--- a/biology/Botanique/Ogier_Ghislain_de_Busbecq/Ogier_Ghislain_de_Busbecq.xlsx
+++ b/biology/Botanique/Ogier_Ghislain_de_Busbecq/Ogier_Ghislain_de_Busbecq.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ogier Ghiselin de Busbecq, en latin : Augerius Gislenius Busbequius et de temps en temps Augier Ghislain de Busbecq, (né en 1522 à Comines, Flandre - mort le 28 octobre 1592 à Saint-Germain-sous-Cailly près de Rouen) est un diplomate et botaniste flamand.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est d'abord au service de l'empereur romain germanique Charles Quint, puis de Ferdinand Ier, Maximilien II et Rodolphe II, comme ambassadeur auprès de l'empire ottoman du sultan Soliman le Magnifique en 1555 puis à nouveau en 1556. Emprisonné, il ne revient qu’en 1562. Ensuite, il fut gouverneur des fils de Maximilien II.
 Il est l’auteur notamment des Legationis turcicae epistolae quatuor (1589), la relation de son ambassade en Turquie en latin, traduit par S. Gaudon (1646) et par l'abbé Louis-Étienne de Foy (1748). On doit à Busbecq la découverte des Res gestae de l'empereur Auguste à Ancyre et l'introduction en Europe de la tulipe, du lilas commun et du marronnier d'Inde. Il est le premier à s’intéresser à la langue gotique de Crimée.
@@ -544,7 +558,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Itinera Constantinopolitanum et Amasianum (1581)
 Plus tard publié comme A. G. Busbequii D. legationis Turcicae epistolae quatuor
